--- a/参考文档/农业价格和供求信息url资源.xlsx
+++ b/参考文档/农业价格和供求信息url资源.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desktop\git\diandianbangnong\diandianCrawling\参考文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\workspace\Pyspace\diandianCrawling\参考文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12315" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/参考文档/农业价格和供求信息url资源.xlsx
+++ b/参考文档/农业价格和供求信息url资源.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="11745"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12315" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,69 +128,70 @@
     <t>http://www.zgncpw.com/sell/</t>
   </si>
   <si>
+    <t>果蔬网</t>
+  </si>
+  <si>
+    <t>https://www.114guoshu.com/hangqing/</t>
+  </si>
+  <si>
+    <t>https://www.114guoshu.com/pifa/
+https://www.114guoshu.com/qiugou/</t>
+  </si>
+  <si>
+    <t>水果网</t>
+  </si>
+  <si>
+    <t>http://www.chunguowang.com/baojia/</t>
+  </si>
+  <si>
+    <t>http://www.chunguowang.com/gongying/
+http://www.chunguowang.com/qiugou/</t>
+  </si>
+  <si>
+    <t>花木网</t>
+  </si>
+  <si>
+    <t>https://www.huamu.com/mall/</t>
+  </si>
+  <si>
+    <t>https://www.huamu.com/pinpai/
+https://www.huamu.com/qiugou/</t>
+  </si>
+  <si>
+    <t>中药材天地网</t>
+  </si>
+  <si>
+    <t>https://www.zyctd.com/jiage/1-0-0.html</t>
+  </si>
+  <si>
+    <t>https://www.zyctd.com/gqgy/
+https://www.zyctd.com/gqqg/</t>
+  </si>
+  <si>
+    <t>中国辣椒网</t>
+  </si>
+  <si>
+    <t>http://www.e658.cn/jg/</t>
+  </si>
+  <si>
+    <t>http://www.e658.cn/gx/list-140.html
+http://www.e658.cn/gx/list-141.html</t>
+  </si>
+  <si>
+    <t>http://sxs_jgt.54.site.veeteam.com/index.php/home/day</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zdscxx.moa.gov.cn:8080/misportal/public/agricultureIndexRedStyle.jsp http://zdscxx.moa.gov.cn:8080/misportal/public/dataChannelRedStyle.jsp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://222.90.83.241/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.zgncpw.com/sell/
 http://www.zgncpw.com/buy/</t>
-  </si>
-  <si>
-    <t>果蔬网</t>
-  </si>
-  <si>
-    <t>https://www.114guoshu.com/hangqing/</t>
-  </si>
-  <si>
-    <t>https://www.114guoshu.com/pifa/
-https://www.114guoshu.com/qiugou/</t>
-  </si>
-  <si>
-    <t>水果网</t>
-  </si>
-  <si>
-    <t>http://www.chunguowang.com/baojia/</t>
-  </si>
-  <si>
-    <t>http://www.chunguowang.com/gongying/
-http://www.chunguowang.com/qiugou/</t>
-  </si>
-  <si>
-    <t>花木网</t>
-  </si>
-  <si>
-    <t>https://www.huamu.com/mall/</t>
-  </si>
-  <si>
-    <t>https://www.huamu.com/pinpai/
-https://www.huamu.com/qiugou/</t>
-  </si>
-  <si>
-    <t>中药材天地网</t>
-  </si>
-  <si>
-    <t>https://www.zyctd.com/jiage/1-0-0.html</t>
-  </si>
-  <si>
-    <t>https://www.zyctd.com/gqgy/
-https://www.zyctd.com/gqqg/</t>
-  </si>
-  <si>
-    <t>中国辣椒网</t>
-  </si>
-  <si>
-    <t>http://www.e658.cn/jg/</t>
-  </si>
-  <si>
-    <t>http://www.e658.cn/gx/list-140.html
-http://www.e658.cn/gx/list-141.html</t>
-  </si>
-  <si>
-    <t>http://sxs_jgt.54.site.veeteam.com/index.php/home/day</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://zdscxx.moa.gov.cn:8080/misportal/public/agricultureIndexRedStyle.jsp http://zdscxx.moa.gov.cn:8080/misportal/public/dataChannelRedStyle.jsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://222.90.83.241/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -559,14 +560,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="174.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -587,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -595,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -698,62 +699,62 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
